--- a/Parameters-Estimation/Ck_Parameters_Estimation/1-Trained-Models/training_2016_2017_test_2018_2019_comparing_old_model/Results-ck-test-2018-model-k-10-old-configuration.xlsx
+++ b/Parameters-Estimation/Ck_Parameters_Estimation/1-Trained-Models/training_2016_2017_test_2018_2019_comparing_old_model/Results-ck-test-2018-model-k-10-old-configuration.xlsx
@@ -13,7 +13,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>random_forest</t>
+  </si>
+  <si>
+    <t>lsboost</t>
+  </si>
+  <si>
+    <t>neural_network</t>
+  </si>
+  <si>
+    <t>old_model</t>
+  </si>
+  <si>
+    <t>RMSE</t>
+  </si>
+  <si>
+    <t>NRMSE</t>
+  </si>
+  <si>
+    <t>MAE</t>
+  </si>
+  <si>
+    <t>RSE</t>
+  </si>
+  <si>
+    <t>RRSE</t>
+  </si>
+  <si>
+    <t>RAE</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>Corr Coeff</t>
+  </si>
   <si>
     <t>Row</t>
   </si>
@@ -152,123 +191,123 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B2" s="0">
-        <v>55.770464305713617</v>
+        <v>57.44262511799942</v>
       </c>
       <c r="C2" s="0">
-        <v>0.71043233903147618</v>
+        <v>0.73173316791819698</v>
       </c>
       <c r="D2" s="0">
-        <v>37.00657517348094</v>
+        <v>38.081507768920027</v>
       </c>
       <c r="E2" s="0">
-        <v>0.48506502762052622</v>
+        <v>0.51458841104222464</v>
       </c>
       <c r="F2" s="0">
-        <v>0.69646609940507964</v>
+        <v>0.71734817978595622</v>
       </c>
       <c r="G2" s="0">
-        <v>0.60465233476246938</v>
+        <v>0.62221571371600981</v>
       </c>
       <c r="H2" s="0">
-        <v>0.51493497237947383</v>
+        <v>0.48541158895777536</v>
       </c>
       <c r="I2" s="0">
-        <v>0.72869758686309216</v>
+        <v>0.70999876518723282</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B3" s="0">
-        <v>59.738720478222447</v>
+        <v>57.041745930137346</v>
       </c>
       <c r="C3" s="0">
-        <v>0.76098199017043433</v>
+        <v>0.72662656637475753</v>
       </c>
       <c r="D3" s="0">
-        <v>36.769360669419783</v>
+        <v>34.742438210657873</v>
       </c>
       <c r="E3" s="0">
-        <v>0.55654883284817491</v>
+        <v>0.50743107915474217</v>
       </c>
       <c r="F3" s="0">
-        <v>0.74602200560584997</v>
+        <v>0.71234196784602144</v>
       </c>
       <c r="G3" s="0">
-        <v>0.60077647478224394</v>
+        <v>0.56765848449734091</v>
       </c>
       <c r="H3" s="0">
-        <v>0.44345116715182509</v>
+        <v>0.49256892084525783</v>
       </c>
       <c r="I3" s="0">
-        <v>0.6973234257544727</v>
+        <v>0.71729943163330045</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B4" s="0">
-        <v>58.901778225830711</v>
+        <v>60.611287740869201</v>
       </c>
       <c r="C4" s="0">
-        <v>0.75032059709431431</v>
+        <v>0.77209719261820953</v>
       </c>
       <c r="D4" s="0">
-        <v>39.70227585794234</v>
+        <v>37.1065142723604</v>
       </c>
       <c r="E4" s="0">
-        <v>0.54106352296665672</v>
+        <v>0.5729259133099962</v>
       </c>
       <c r="F4" s="0">
-        <v>0.73557020260927963</v>
+        <v>0.75691869663128031</v>
       </c>
       <c r="G4" s="0">
-        <v>0.64869752686790927</v>
+        <v>0.60628524483826651</v>
       </c>
       <c r="H4" s="0">
-        <v>0.45893647703334328</v>
+        <v>0.4270740866900038</v>
       </c>
       <c r="I4" s="0">
-        <v>0.69373227525673331</v>
+        <v>0.67650700922256801</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B5" s="0">
         <v>64.119604773399075</v>
